--- a/fastqFiles/fastq_fullrun_2d_hbrown_09.27.19.xlsx
+++ b/fastqFiles/fastq_fullrun_2d_hbrown_09.27.19.xlsx
@@ -255,7 +255,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -273,10 +273,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -312,7 +308,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B27"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -382,26 +378,26 @@
       <c r="C2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="0" t="n">
         <v>3906</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="7" t="n">
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="6" t="n">
         <v>156</v>
       </c>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="6" t="n">
         <v>0.87324960960961</v>
       </c>
-      <c r="K2" s="8" t="n">
+      <c r="K2" s="7" t="n">
         <v>6628739</v>
       </c>
       <c r="L2" s="3" t="s">
